--- a/biology/Botanique/Poireau/Poireau.xlsx
+++ b/biology/Botanique/Poireau/Poireau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Allium ampeloprasum var. porrum
 Le poireau cultivé (Allium ampeloprasum var. porrum, anciennement Allium porrum) est une espèce de plante herbacée vivace largement cultivée comme plante potagère pour ses feuilles (pseudo-tiges) consommées comme légumes.
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le poireau a de longues feuilles engainantes, opposées, plates, vert sombre ou vert jaunâtre, plus ou moins larges. La base des feuilles emboîtées forme une pseudo-tige appelée « fût » dont la partie enterrée est blanche et la plus appréciée. Les fleurs, blanc verdâtre, apparaissent groupées en ombelle au sommet d'une tige florale dressée, la deuxième année.
 </t>
@@ -544,9 +558,11 @@
           <t>Origine et distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est possiblement originaire d'Europe[1] ou du Moyen-Orient où il pourrait avoir été domestiqué[2]. Elle est largement cultivée dans toutes les zones tempérées.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est possiblement originaire d'Europe ou du Moyen-Orient où il pourrait avoir été domestiqué. Elle est largement cultivée dans toutes les zones tempérées.
 </t>
         </is>
       </c>
@@ -577,10 +593,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Antiquité
-Le poireau est un légume très anciennement connu. En effet, il était cultivé en Égypte au IIIe millénaire av. J.-C.[2]; en Mésopotamie, il fait partie des ingrédients figurant dans la plus vieille recette de cuisine qui soit parvenue à l'époque contemporaine[2]. L'Ancien Testament le mentionne également brièvement dans l'exode hors d'Égypte[2]. Par la suite, Hippocrate en parle comme d'un des légumes les plus cultivés de Grèce[2] et dans la Rome antique, il est tenu en haute estime[2]: l'empereur romain Néron est surnommé le « porrophage » car il en consomme de grandes quantités pour s'éclaircir la voix[2],[3],[4],[5].
-Moyen-Âge
-A l'époque carolingienne, cette plante figure parmi les plantes potagères recommandées dans le capitulaire De Villis[2]. Au XIIe siècle, Platearius déconseille sa consommation, et Hildegarde de Bingen lui attribue comme effet de diminuer la vigueur sexuelle[2]. En France au XVe siècle, il fait partie de l'alimentation de base des paysans, quoiqu'à un degré moindre que le chou ou l'oignon[2].
+          <t>Antiquité</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le poireau est un légume très anciennement connu. En effet, il était cultivé en Égypte au IIIe millénaire av. J.-C.; en Mésopotamie, il fait partie des ingrédients figurant dans la plus vieille recette de cuisine qui soit parvenue à l'époque contemporaine. L'Ancien Testament le mentionne également brièvement dans l'exode hors d'Égypte. Par la suite, Hippocrate en parle comme d'un des légumes les plus cultivés de Grèce et dans la Rome antique, il est tenu en haute estime: l'empereur romain Néron est surnommé le « porrophage » car il en consomme de grandes quantités pour s'éclaircir la voix.
 </t>
         </is>
       </c>
@@ -606,12 +625,51 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Moyen-Âge</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A l'époque carolingienne, cette plante figure parmi les plantes potagères recommandées dans le capitulaire De Villis. Au XIIe siècle, Platearius déconseille sa consommation, et Hildegarde de Bingen lui attribue comme effet de diminuer la vigueur sexuelle. En France au XVe siècle, il fait partie de l'alimentation de base des paysans, quoiqu'à un degré moindre que le chou ou l'oignon.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Poireau</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Poireau</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette plante préfère un sol frais, profond et riche en humus. Elle est très rustique et supporte bien le froid de l'hiver[6].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante préfère un sol frais, profond et riche en humus. Elle est très rustique et supporte bien le froid de l'hiver.
 La multiplication se fait en deux temps :
 semis en pépinière en février-mars ou en place en avril-mai.
 repiquage des jeunes plants  lorsque les tiges ont la taille d'un crayon après les avoir « habillés » (c'est-à-dire avoir raccourci les feuilles et les racines). Un repiquage profond favorise la longueur du fût.
@@ -621,31 +679,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Poireau</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Poireau</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Poireau</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Poireau</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Principales variétés cultivées</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Près de 190 variétés sont inscrites au Catalogue européen des espèces et variétés, 26 variétés sont inscrites au Catalogue officiel français en 2014. Parmi les principales variétés cultivées actuellement en France on trouve :
 Armor
@@ -667,44 +727,7 @@
 Népal
 Réal
 Révil
-et  Leblond (variété de conservation, sélectionnée vers 1940, cultivé dans le Marais audomarois, conservé avec le CRRG)[7]
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Poireau</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Poireau</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Ennemis du poireau</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les parasites les plus courants sont :
-la teigne du poireau (Acrolepiopsis assectella) dont la chenille est souvent nommée ver du poireau, parasite le plus fréquent. Pour l'éviter, mettre de préférence un voile anti-insecte ou traiter les parties aériennes avec des produits à base de Bacillus thuringiensis[8].
-la mouche de l'oignon (Delia antiqua, famille des Anthomyiidae).
-la mouche mineuse du poireau (Napomyza gymnoostoma), qui est une espèce invasive apparue en Europe, probablement favorisée par les cultures intensives et les échanges commerciaux. Elle est signalée en France depuis 2003, d'abord en Alsace puis en Bourgogne et en Île-de-France, parfois nommée Phytomyza gymnostoma[9]. La protection la plus efficace est la mise en place d'un voile anti-insecte[10].
-une autre mineuse semble en extension, dont en France depuis 2006 où elle a été découverte dans le département de la Manche ; c'est Liriomyza nietkei, génératrice de moins de dégâts que la Phytomyza[9].
-Le Thrips (Thysanoptera) provoque des dommages d'ordre esthétique rendant la marchandise invendable (points noirs sur les feuilles)[11]
-La principale maladie cryptogamique est la rouille du poireau qui provoque l’apparition de petits points de rouille dus à plusieurs espèces du genre Puccinia. Elle se développe lorsque le feuillage est humide, le choix de variétés résistantes, la rotation des cultures sont les meilleures façons de s'en prémunir[12].
+et  Leblond (variété de conservation, sélectionnée vers 1940, cultivé dans le Marais audomarois, conservé avec le CRRG)
 </t>
         </is>
       </c>
@@ -730,13 +753,20 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Taille, records</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Certains poireaux atteignent parfois des tailles et des diamètres inhabituels.
-Justin Christofleau dans son jardin de La Queue-les-Yvelines (en Seine-et-Oise), jardin expérimentalement cultivé sans engrais mais avec certains matériels d'électroculture, a le 26 avril 1930 fait constater par huissier la taille exceptionnelle de plusieurs plantes de son jardin, dont des poireaux (de 18 à 20 cm de diamètres à leur base) ; ainsi que du blé dont les feuilles mesuraient jusqu’à 73 cm ; et un chou (cœur de bœuf) d'un diamètre de plus de 2 m et d’une hauteur de 1,46m [13].
+          <t>Ennemis du poireau</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les parasites les plus courants sont :
+la teigne du poireau (Acrolepiopsis assectella) dont la chenille est souvent nommée ver du poireau, parasite le plus fréquent. Pour l'éviter, mettre de préférence un voile anti-insecte ou traiter les parties aériennes avec des produits à base de Bacillus thuringiensis.
+la mouche de l'oignon (Delia antiqua, famille des Anthomyiidae).
+la mouche mineuse du poireau (Napomyza gymnoostoma), qui est une espèce invasive apparue en Europe, probablement favorisée par les cultures intensives et les échanges commerciaux. Elle est signalée en France depuis 2003, d'abord en Alsace puis en Bourgogne et en Île-de-France, parfois nommée Phytomyza gymnostoma. La protection la plus efficace est la mise en place d'un voile anti-insecte.
+une autre mineuse semble en extension, dont en France depuis 2006 où elle a été découverte dans le département de la Manche ; c'est Liriomyza nietkei, génératrice de moins de dégâts que la Phytomyza.
+Le Thrips (Thysanoptera) provoque des dommages d'ordre esthétique rendant la marchandise invendable (points noirs sur les feuilles)
+La principale maladie cryptogamique est la rouille du poireau qui provoque l’apparition de petits points de rouille dus à plusieurs espèces du genre Puccinia. Elle se développe lorsque le feuillage est humide, le choix de variétés résistantes, la rotation des cultures sont les meilleures façons de s'en prémunir.
 </t>
         </is>
       </c>
@@ -762,10 +792,46 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
+          <t>Taille, records</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Certains poireaux atteignent parfois des tailles et des diamètres inhabituels.
+Justin Christofleau dans son jardin de La Queue-les-Yvelines (en Seine-et-Oise), jardin expérimentalement cultivé sans engrais mais avec certains matériels d'électroculture, a le 26 avril 1930 fait constater par huissier la taille exceptionnelle de plusieurs plantes de son jardin, dont des poireaux (de 18 à 20 cm de diamètres à leur base) ; ainsi que du blé dont les feuilles mesuraient jusqu’à 73 cm ; et un chou (cœur de bœuf) d'un diamètre de plus de 2 m et d’une hauteur de 1,46m .
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Poireau</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Poireau</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Les poireaux, dont le goût est intermédiaire entre ceux de l'oignon et de l'asperge, se consomment cuits. On peut les manger froids en vinaigrette, mais ils entrent le plus souvent dans la préparation de plats chauds : tartes (flamiche par exemple), quiches, gratins, potages, pot-au-feu, potées, fondue... 
 Le poireau entre aussi sous forme déshydratée dans les potages industriels.
@@ -775,38 +841,6 @@
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Poireau</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Poireau</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Aspects économiques</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La production mondiale de poireaux s'élevait à 2 236 771 tonnes en 2014, le premier producteur étant l'Indonésie avec près de 520 000 tonnes annuelles, suivie de la Turquie (223 000 t) et la Belgique (190 000 t)[14].
-En 2017 la production française est de 158 273 tonnes[15]. La surface cultivée est de 4 955 hectares, soit un rendement de 31,9 tonnes à l'hectare. Les principaux départements producteurs sont la Manche, la  Loire-Atlantique, le Loir-et-Cher, le Nord, l'Ain Le commerce extérieur est déficitaire : 16 325  tonnes produites sont exportées mais 24 271 tonnes sont importées.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
@@ -828,10 +862,46 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
+          <t>Aspects économiques</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La production mondiale de poireaux s'élevait à 2 236 771 tonnes en 2014, le premier producteur étant l'Indonésie avec près de 520 000 tonnes annuelles, suivie de la Turquie (223 000 t) et la Belgique (190 000 t).
+En 2017 la production française est de 158 273 tonnes. La surface cultivée est de 4 955 hectares, soit un rendement de 31,9 tonnes à l'hectare. Les principaux départements producteurs sont la Manche, la  Loire-Atlantique, le Loir-et-Cher, le Nord, l'Ain Le commerce extérieur est déficitaire : 16 325  tonnes produites sont exportées mais 24 271 tonnes sont importées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Poireau</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Poireau</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>Allium ampeloprasum var. porrum (L.) J.Gay
 Allium laetum Salisb.
@@ -840,38 +910,6 @@
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Poireau</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Poireau</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Symbolique</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Le poireau est une des deux plantes emblèmes du pays de Galles (l'autre est le narcisse).
-Le « porais » est le symbole du carnaval de Tilff, un village situé près de Liège, en Belgique. La figure principale du carnaval est « D'Jôsef Li R'Pikeû » (« Joseph le repiqueur »)[16].
-Le poireau est l'objet fétiche d'Hatsune Miku.</t>
-        </is>
-      </c>
-    </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
@@ -893,10 +931,46 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
+          <t>Symbolique</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Le poireau est une des deux plantes emblèmes du pays de Galles (l'autre est le narcisse).
+Le « porais » est le symbole du carnaval de Tilff, un village situé près de Liège, en Belgique. La figure principale du carnaval est « D'Jôsef Li R'Pikeû » (« Joseph le repiqueur »).
+Le poireau est l'objet fétiche d'Hatsune Miku.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Poireau</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Poireau</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>Poireau dans le langage courant</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t>Faire le poireau, c'est attendre (on dit aussi « poireauter »), en restant planté comme un poireau.
 Le poireau, c'est aussi la décoration du Mérite agricole dans le langage familier.
